--- a/BMI/wwwroot/Uploads/GR.xlsx
+++ b/BMI/wwwroot/Uploads/GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177AE2EC-9FBA-463C-BD9F-99FE0319EE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380498E-F58B-4193-9292-23B1C7248D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,7 +946,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BMI/wwwroot/Uploads/GR.xlsx
+++ b/BMI/wwwroot/Uploads/GR.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380498E-F58B-4193-9292-23B1C7248D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE92265-0E75-4ED6-9E8B-F11C8048E572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>po</t>
   </si>
@@ -44,13 +44,7 @@
     <t>qty</t>
   </si>
   <si>
-    <t>batch</t>
-  </si>
-  <si>
     <t>TA23D7GANV6</t>
-  </si>
-  <si>
-    <t>09691SIDID</t>
   </si>
   <si>
     <t>TA40Y3LANC2</t>
@@ -632,15 +626,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF8D0534-EAF6-43EB-937C-AAA955DEC8E6}" name="po"/>
     <tableColumn id="2" xr3:uid="{05D07168-58D1-477B-8B88-AFEEA4B57737}" name="date" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{FDC0085D-EB3D-4B8A-BBF5-D4984245E9B1}" name="pt" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F2E73C4D-47FE-4686-9200-F47741997538}" name="bmi_code"/>
     <tableColumn id="4" xr3:uid="{F6363017-8CFB-445E-B15A-1E449B97403B}" name="qty"/>
-    <tableColumn id="5" xr3:uid="{DC1768A7-DCDC-499F-9D74-389B49F8028A}" name="batch"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -943,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,10 +947,10 @@
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -973,388 +966,328 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B2" s="3">
         <v>44055</v>
       </c>
       <c r="C2" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>2198.268</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B3" s="3">
         <v>44055</v>
       </c>
       <c r="C3" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>394.98</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B4" s="1">
         <v>44055</v>
       </c>
       <c r="C4" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>140.74</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B5" s="1">
         <v>44055</v>
       </c>
       <c r="C5" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>27.24</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B6" s="1">
         <v>44055</v>
       </c>
       <c r="C6" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>608.36</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B7" s="1">
         <v>44055</v>
       </c>
       <c r="C7" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>155.268</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B8" s="1">
         <v>44055</v>
       </c>
       <c r="C8" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1198.56</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>6800083952</v>
+        <v>6800083955</v>
       </c>
       <c r="B9" s="1">
         <v>44055</v>
       </c>
       <c r="C9" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>4.54</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B10" s="1">
         <v>44056</v>
       </c>
       <c r="C10" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>690.07999999999993</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B11" s="1">
         <v>44056</v>
       </c>
       <c r="C11" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>349.58</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B12" s="1">
         <v>44056</v>
       </c>
       <c r="C12" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>631.05999999999995</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B13" s="1">
         <v>44056</v>
       </c>
       <c r="C13" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1650.7439999999999</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B14" s="1">
         <v>44056</v>
       </c>
       <c r="C14" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>626.52</v>
       </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B15" s="1">
         <v>44056</v>
       </c>
       <c r="C15" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>122.58</v>
       </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>6800083953</v>
+        <v>6800083955</v>
       </c>
       <c r="B16" s="1">
         <v>44056</v>
       </c>
       <c r="C16" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>108.96</v>
       </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6800083952</v>
+        <v>6800083955</v>
       </c>
       <c r="B17" s="1">
         <v>44056</v>
       </c>
       <c r="C17" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>424.94400000000002</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>6800083952</v>
+        <v>6800083955</v>
       </c>
       <c r="B18" s="1">
         <v>44057</v>
       </c>
       <c r="C18" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>74.91</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6800083952</v>
+        <v>6800083955</v>
       </c>
       <c r="B19" s="1">
         <v>44057</v>
       </c>
       <c r="C19" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>4.54</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6800083952</v>
+        <v>6800083955</v>
       </c>
       <c r="B20" s="1">
         <v>44057</v>
       </c>
       <c r="C20" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>22.7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/BMI/wwwroot/Uploads/GR.xlsx
+++ b/BMI/wwwroot/Uploads/GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE92265-0E75-4ED6-9E8B-F11C8048E572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A871C4EC-01ED-4639-B40A-5ABF450B57D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>po</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>TA194G3ANV1</t>
-  </si>
-  <si>
-    <t>TA10W5RANV2</t>
   </si>
   <si>
     <t>pt</t>
@@ -626,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF8D0534-EAF6-43EB-937C-AAA955DEC8E6}" name="po"/>
     <tableColumn id="2" xr3:uid="{05D07168-58D1-477B-8B88-AFEEA4B57737}" name="date" dataDxfId="1"/>
@@ -936,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,7 +944,8 @@
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -958,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1020,7 +1018,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6800083955</v>
+        <v>6800083954</v>
       </c>
       <c r="B5" s="1">
         <v>44055</v>
@@ -1108,7 +1106,7 @@
         <v>6800083955</v>
       </c>
       <c r="B10" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1125,7 +1123,7 @@
         <v>6800083955</v>
       </c>
       <c r="B11" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1142,7 +1140,7 @@
         <v>6800083955</v>
       </c>
       <c r="B12" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1159,7 +1157,7 @@
         <v>6800083955</v>
       </c>
       <c r="B13" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1168,126 +1166,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>1650.7439999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>6800083955</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44056</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>626.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>6800083955</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44056</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>122.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>6800083955</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44056</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>108.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>6800083955</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44056</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>424.94400000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>6800083955</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44057</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>74.91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>6800083955</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44057</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>6800083955</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44057</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>22.7</v>
+        <v>650.74400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/BMI/wwwroot/Uploads/GR.xlsx
+++ b/BMI/wwwroot/Uploads/GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A871C4EC-01ED-4639-B40A-5ABF450B57D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA07405-6A55-459C-892C-50EB9A4B5F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>po</t>
   </si>
@@ -623,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA64F6B1-3BDB-4692-9B39-43124FFC86CA}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25" xr:uid="{F712CB4C-B929-40BB-9367-581A8854682A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF8D0534-EAF6-43EB-937C-AAA955DEC8E6}" name="po"/>
     <tableColumn id="2" xr3:uid="{05D07168-58D1-477B-8B88-AFEEA4B57737}" name="date" dataDxfId="1"/>
@@ -933,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,7 +973,7 @@
         <v>44055</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -990,7 +990,7 @@
         <v>44055</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1007,7 +1007,7 @@
         <v>44055</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>44055</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1041,7 +1041,7 @@
         <v>44055</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>44055</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1075,7 +1075,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1109,7 +1109,7 @@
         <v>44055</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1126,7 +1126,7 @@
         <v>44055</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>44055</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1160,12 +1160,216 @@
         <v>44055</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
+        <v>650.74400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6800083955</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2198.268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6800083955</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>394.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6800083955</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>140.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6800083954</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6800083955</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>608.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6800083955</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>155.268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6800083955</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1198.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>6800083955</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6800083955</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>690.07999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6800083955</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>349.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6800083955</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>631.05999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6800083955</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>650.74400000000003</v>
       </c>
     </row>
